--- a/migforecasting/cities10/1/d14.xlsx
+++ b/migforecasting/cities10/1/d14.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Albert\.spyder-py3\ITMO-2\migforecasting\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Albert\.spyder-py3\ITMO-2\migforecasting\cities10\1\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,9 +21,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="242">
   <si>
-    <t xml:space="preserve">Тула </t>
-  </si>
-  <si>
     <t>Новомосковск</t>
   </si>
   <si>
@@ -772,6 +769,9 @@
 7) С учетом переоценки, проведенной на конец года коммерческими организациями (без субъектов малого предпринимательства).
 8) По коммерческим организациям, без субъектов малого предпринимательства.
 9) Данные не публикуются в целях обеспечения конфиденциальности первичных статистических данных, полученных от организаций, в соответствии с Федеральным законом от 29.11.07 №282-ФЗ "Об официальном статистическом учете и системе государственной статистики в Российской Федерации" (п.5 ст.4, ч.1 ст.9).</t>
+  </si>
+  <si>
+    <t>Тула</t>
   </si>
 </sst>
 </file>
@@ -1136,8 +1136,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="F83" sqref="F83"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1164,16 +1164,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
+        <v>241</v>
+      </c>
+      <c r="D2" t="s">
+        <v>241</v>
+      </c>
+      <c r="E2" t="s">
         <v>0</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
         <v>0</v>
-      </c>
-      <c r="E2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F2" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -1181,16 +1181,16 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
         <v>2</v>
       </c>
-      <c r="D3" t="s">
-        <v>3</v>
-      </c>
       <c r="E3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" t="s">
         <v>2</v>
-      </c>
-      <c r="F3" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -1198,19 +1198,19 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -1218,19 +1218,19 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
         <v>5</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>6</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>7</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>8</v>
-      </c>
-      <c r="F5" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -1238,19 +1238,19 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
         <v>10</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>11</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>12</v>
       </c>
-      <c r="E6" t="s">
-        <v>13</v>
-      </c>
       <c r="F6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -1258,19 +1258,19 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" t="s">
         <v>14</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>15</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>16</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>17</v>
-      </c>
-      <c r="F7" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -1278,19 +1278,19 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" t="s">
         <v>19</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>20</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>21</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>22</v>
-      </c>
-      <c r="F8" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -1323,19 +1323,19 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
         <v>26</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>27</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>28</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
         <v>29</v>
-      </c>
-      <c r="F14" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -1343,19 +1343,19 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -1363,19 +1363,19 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" t="s">
         <v>32</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
         <v>33</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
         <v>34</v>
       </c>
-      <c r="E16" t="s">
+      <c r="F16" t="s">
         <v>35</v>
-      </c>
-      <c r="F16" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -1383,19 +1383,19 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" t="s">
         <v>37</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
         <v>38</v>
       </c>
-      <c r="D17" t="s">
+      <c r="E17" t="s">
         <v>39</v>
       </c>
-      <c r="E17" t="s">
+      <c r="F17" t="s">
         <v>40</v>
-      </c>
-      <c r="F17" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -1403,19 +1403,19 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18" t="s">
         <v>42</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
         <v>43</v>
       </c>
-      <c r="D18" t="s">
+      <c r="E18" t="s">
         <v>44</v>
       </c>
-      <c r="E18" t="s">
+      <c r="F18" t="s">
         <v>45</v>
-      </c>
-      <c r="F18" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -1423,19 +1423,19 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -1443,19 +1443,19 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
+        <v>47</v>
+      </c>
+      <c r="C20" t="s">
         <v>48</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D20" t="s">
         <v>49</v>
       </c>
-      <c r="D20" t="s">
+      <c r="E20" t="s">
         <v>50</v>
       </c>
-      <c r="E20" t="s">
+      <c r="F20" t="s">
         <v>51</v>
-      </c>
-      <c r="F20" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -1463,19 +1463,19 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
+        <v>52</v>
+      </c>
+      <c r="C21" t="s">
         <v>53</v>
       </c>
-      <c r="C21" t="s">
+      <c r="D21" t="s">
         <v>54</v>
       </c>
-      <c r="D21" t="s">
+      <c r="E21" t="s">
         <v>55</v>
       </c>
-      <c r="E21" t="s">
+      <c r="F21" t="s">
         <v>56</v>
-      </c>
-      <c r="F21" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -1483,19 +1483,19 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
+        <v>57</v>
+      </c>
+      <c r="C22" t="s">
         <v>58</v>
       </c>
-      <c r="C22" t="s">
+      <c r="D22" t="s">
         <v>59</v>
       </c>
-      <c r="D22" t="s">
+      <c r="E22" t="s">
         <v>60</v>
       </c>
-      <c r="E22" t="s">
+      <c r="F22" t="s">
         <v>61</v>
-      </c>
-      <c r="F22" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -1503,19 +1503,19 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
+        <v>62</v>
+      </c>
+      <c r="C23" t="s">
         <v>63</v>
       </c>
-      <c r="C23" t="s">
+      <c r="D23" t="s">
         <v>64</v>
       </c>
-      <c r="D23" t="s">
+      <c r="E23" t="s">
         <v>65</v>
       </c>
-      <c r="E23" t="s">
+      <c r="F23" t="s">
         <v>66</v>
-      </c>
-      <c r="F23" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -1523,19 +1523,19 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
+        <v>67</v>
+      </c>
+      <c r="C24" t="s">
         <v>68</v>
       </c>
-      <c r="C24" t="s">
+      <c r="D24" t="s">
+        <v>68</v>
+      </c>
+      <c r="E24" t="s">
         <v>69</v>
       </c>
-      <c r="D24" t="s">
+      <c r="F24" t="s">
         <v>69</v>
-      </c>
-      <c r="E24" t="s">
-        <v>70</v>
-      </c>
-      <c r="F24" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -1543,7 +1543,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -1551,19 +1551,19 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
+        <v>71</v>
+      </c>
+      <c r="C26" t="s">
         <v>72</v>
       </c>
-      <c r="C26" t="s">
+      <c r="D26" t="s">
         <v>73</v>
       </c>
-      <c r="D26" t="s">
+      <c r="E26" t="s">
         <v>74</v>
       </c>
-      <c r="E26" t="s">
+      <c r="F26" t="s">
         <v>75</v>
-      </c>
-      <c r="F26" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -1571,19 +1571,19 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
+        <v>76</v>
+      </c>
+      <c r="C27" t="s">
         <v>77</v>
       </c>
-      <c r="C27" t="s">
+      <c r="D27" t="s">
         <v>78</v>
       </c>
-      <c r="D27" t="s">
+      <c r="E27" t="s">
         <v>79</v>
       </c>
-      <c r="E27" t="s">
+      <c r="F27" t="s">
         <v>80</v>
-      </c>
-      <c r="F27" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -1591,7 +1591,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -1599,19 +1599,19 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
+        <v>82</v>
+      </c>
+      <c r="C29" t="s">
         <v>83</v>
       </c>
-      <c r="C29" t="s">
+      <c r="D29" t="s">
         <v>84</v>
       </c>
-      <c r="D29" t="s">
+      <c r="E29" t="s">
         <v>85</v>
       </c>
-      <c r="E29" t="s">
+      <c r="F29" t="s">
         <v>86</v>
-      </c>
-      <c r="F29" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -1619,19 +1619,19 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
+        <v>87</v>
+      </c>
+      <c r="C30" t="s">
         <v>88</v>
       </c>
-      <c r="C30" t="s">
+      <c r="D30" t="s">
         <v>89</v>
       </c>
-      <c r="D30" t="s">
+      <c r="E30" t="s">
         <v>90</v>
       </c>
-      <c r="E30" t="s">
+      <c r="F30" t="s">
         <v>91</v>
-      </c>
-      <c r="F30" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -1639,7 +1639,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -1647,19 +1647,19 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C32" t="s">
+        <v>93</v>
+      </c>
+      <c r="D32" t="s">
         <v>94</v>
       </c>
-      <c r="D32" t="s">
+      <c r="E32" t="s">
         <v>95</v>
       </c>
-      <c r="E32" t="s">
+      <c r="F32" t="s">
         <v>96</v>
-      </c>
-      <c r="F32" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -1667,19 +1667,19 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C33" t="s">
+        <v>97</v>
+      </c>
+      <c r="D33" t="s">
         <v>98</v>
       </c>
-      <c r="D33" t="s">
+      <c r="E33" t="s">
         <v>99</v>
       </c>
-      <c r="E33" t="s">
+      <c r="F33" t="s">
         <v>100</v>
-      </c>
-      <c r="F33" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -1687,19 +1687,19 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
+        <v>101</v>
+      </c>
+      <c r="C34" t="s">
         <v>102</v>
       </c>
-      <c r="C34" t="s">
+      <c r="D34" t="s">
         <v>103</v>
       </c>
-      <c r="D34" t="s">
+      <c r="E34" t="s">
         <v>104</v>
       </c>
-      <c r="E34" t="s">
-        <v>105</v>
-      </c>
       <c r="F34" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -1707,7 +1707,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -1715,19 +1715,19 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
+        <v>106</v>
+      </c>
+      <c r="C36" t="s">
         <v>107</v>
       </c>
-      <c r="C36" t="s">
+      <c r="D36" t="s">
         <v>108</v>
       </c>
-      <c r="D36" t="s">
+      <c r="E36" t="s">
         <v>109</v>
       </c>
-      <c r="E36" t="s">
-        <v>110</v>
-      </c>
       <c r="F36" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -1735,19 +1735,19 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C37" t="s">
+        <v>110</v>
+      </c>
+      <c r="D37" t="s">
         <v>111</v>
       </c>
-      <c r="D37" t="s">
+      <c r="E37" t="s">
         <v>112</v>
       </c>
-      <c r="E37" t="s">
+      <c r="F37" t="s">
         <v>113</v>
-      </c>
-      <c r="F37" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -1755,19 +1755,19 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
+        <v>114</v>
+      </c>
+      <c r="C38" t="s">
         <v>115</v>
       </c>
-      <c r="C38" t="s">
+      <c r="D38" t="s">
+        <v>29</v>
+      </c>
+      <c r="E38" t="s">
         <v>116</v>
       </c>
-      <c r="D38" t="s">
-        <v>30</v>
-      </c>
-      <c r="E38" t="s">
-        <v>117</v>
-      </c>
       <c r="F38" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -1775,7 +1775,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -1783,19 +1783,19 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C40" t="s">
+        <v>118</v>
+      </c>
+      <c r="D40" t="s">
         <v>119</v>
       </c>
-      <c r="D40" t="s">
+      <c r="E40" t="s">
         <v>120</v>
       </c>
-      <c r="E40" t="s">
+      <c r="F40" t="s">
         <v>121</v>
-      </c>
-      <c r="F40" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -1803,19 +1803,19 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C41" t="s">
+        <v>122</v>
+      </c>
+      <c r="D41" t="s">
         <v>123</v>
       </c>
-      <c r="D41" t="s">
+      <c r="E41" t="s">
         <v>124</v>
       </c>
-      <c r="E41" t="s">
+      <c r="F41" t="s">
         <v>125</v>
-      </c>
-      <c r="F41" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -1823,19 +1823,19 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
+        <v>126</v>
+      </c>
+      <c r="C42" t="s">
         <v>127</v>
       </c>
-      <c r="C42" t="s">
+      <c r="D42" t="s">
         <v>128</v>
       </c>
-      <c r="D42" t="s">
+      <c r="E42" t="s">
         <v>129</v>
       </c>
-      <c r="E42" t="s">
+      <c r="F42" t="s">
         <v>130</v>
-      </c>
-      <c r="F42" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -1843,19 +1843,19 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
+        <v>131</v>
+      </c>
+      <c r="C43" t="s">
         <v>132</v>
       </c>
-      <c r="C43" t="s">
+      <c r="D43" t="s">
         <v>133</v>
       </c>
-      <c r="D43" t="s">
+      <c r="E43" t="s">
         <v>134</v>
       </c>
-      <c r="E43" t="s">
+      <c r="F43" t="s">
         <v>135</v>
-      </c>
-      <c r="F43" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -1863,19 +1863,19 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C44" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D44" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E44" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F44" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -1883,19 +1883,19 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
+        <v>137</v>
+      </c>
+      <c r="C45" t="s">
         <v>138</v>
       </c>
-      <c r="C45" t="s">
+      <c r="D45" t="s">
         <v>139</v>
       </c>
-      <c r="D45" t="s">
+      <c r="E45" t="s">
         <v>140</v>
       </c>
-      <c r="E45" t="s">
+      <c r="F45" t="s">
         <v>141</v>
-      </c>
-      <c r="F45" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -1903,19 +1903,19 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
+        <v>142</v>
+      </c>
+      <c r="C46" t="s">
         <v>143</v>
       </c>
-      <c r="C46" t="s">
+      <c r="D46" t="s">
         <v>144</v>
       </c>
-      <c r="D46" t="s">
+      <c r="E46" t="s">
         <v>145</v>
       </c>
-      <c r="E46" t="s">
+      <c r="F46" t="s">
         <v>146</v>
-      </c>
-      <c r="F46" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -1923,19 +1923,19 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
+        <v>147</v>
+      </c>
+      <c r="C47" t="s">
         <v>148</v>
       </c>
-      <c r="C47" t="s">
+      <c r="D47" t="s">
         <v>149</v>
       </c>
-      <c r="D47" t="s">
+      <c r="E47" t="s">
         <v>150</v>
       </c>
-      <c r="E47" t="s">
+      <c r="F47" t="s">
         <v>151</v>
-      </c>
-      <c r="F47" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -1943,19 +1943,19 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
+        <v>152</v>
+      </c>
+      <c r="C48" t="s">
         <v>153</v>
       </c>
-      <c r="C48" t="s">
+      <c r="D48" t="s">
         <v>154</v>
       </c>
-      <c r="D48" t="s">
+      <c r="E48" t="s">
+        <v>11</v>
+      </c>
+      <c r="F48" t="s">
         <v>155</v>
-      </c>
-      <c r="E48" t="s">
-        <v>12</v>
-      </c>
-      <c r="F48" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
@@ -1963,19 +1963,19 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C49" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D49" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E49" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F49" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
@@ -1983,19 +1983,19 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
+        <v>157</v>
+      </c>
+      <c r="C50" t="s">
         <v>158</v>
       </c>
-      <c r="C50" t="s">
+      <c r="D50" t="s">
         <v>159</v>
       </c>
-      <c r="D50" t="s">
+      <c r="E50" t="s">
         <v>160</v>
       </c>
-      <c r="E50" t="s">
+      <c r="F50" t="s">
         <v>161</v>
-      </c>
-      <c r="F50" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
@@ -2003,19 +2003,19 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C51" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D51" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E51" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F51" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
@@ -2023,7 +2023,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
@@ -2031,19 +2031,19 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C53" t="s">
+        <v>23</v>
+      </c>
+      <c r="D53" t="s">
         <v>24</v>
       </c>
-      <c r="D53" t="s">
-        <v>25</v>
-      </c>
       <c r="E53" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F53" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
@@ -2051,19 +2051,19 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
+        <v>165</v>
+      </c>
+      <c r="C54" t="s">
         <v>166</v>
       </c>
-      <c r="C54" t="s">
+      <c r="D54" t="s">
         <v>167</v>
       </c>
-      <c r="D54" t="s">
+      <c r="E54" t="s">
         <v>168</v>
       </c>
-      <c r="E54" t="s">
+      <c r="F54" t="s">
         <v>169</v>
-      </c>
-      <c r="F54" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
@@ -2071,19 +2071,19 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
+        <v>170</v>
+      </c>
+      <c r="C55" t="s">
+        <v>169</v>
+      </c>
+      <c r="D55" t="s">
+        <v>169</v>
+      </c>
+      <c r="E55" t="s">
         <v>171</v>
       </c>
-      <c r="C55" t="s">
-        <v>170</v>
-      </c>
-      <c r="D55" t="s">
-        <v>170</v>
-      </c>
-      <c r="E55" t="s">
+      <c r="F55" t="s">
         <v>172</v>
-      </c>
-      <c r="F55" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
@@ -2091,7 +2091,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
@@ -2099,19 +2099,19 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
+        <v>174</v>
+      </c>
+      <c r="C57" t="s">
         <v>175</v>
       </c>
-      <c r="C57" t="s">
+      <c r="D57" t="s">
         <v>176</v>
       </c>
-      <c r="D57" t="s">
-        <v>177</v>
-      </c>
       <c r="E57" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F57" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
@@ -2119,19 +2119,19 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C58" t="s">
+        <v>177</v>
+      </c>
+      <c r="D58" t="s">
         <v>178</v>
       </c>
-      <c r="D58" t="s">
+      <c r="E58" t="s">
         <v>179</v>
       </c>
-      <c r="E58" t="s">
+      <c r="F58" t="s">
         <v>180</v>
-      </c>
-      <c r="F58" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
@@ -2139,19 +2139,19 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C59" t="s">
+        <v>181</v>
+      </c>
+      <c r="D59" t="s">
         <v>182</v>
       </c>
-      <c r="D59" t="s">
+      <c r="E59" t="s">
         <v>183</v>
       </c>
-      <c r="E59" t="s">
+      <c r="F59" t="s">
         <v>184</v>
-      </c>
-      <c r="F59" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
@@ -2159,19 +2159,19 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C60" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D60" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E60" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F60" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
@@ -2179,19 +2179,19 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
+        <v>186</v>
+      </c>
+      <c r="C61" t="s">
         <v>187</v>
       </c>
-      <c r="C61" t="s">
+      <c r="D61" t="s">
         <v>188</v>
       </c>
-      <c r="D61" t="s">
+      <c r="E61" t="s">
         <v>189</v>
       </c>
-      <c r="E61" t="s">
+      <c r="F61" t="s">
         <v>190</v>
-      </c>
-      <c r="F61" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
@@ -2199,7 +2199,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
@@ -2207,19 +2207,19 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
+        <v>192</v>
+      </c>
+      <c r="C63" t="s">
         <v>193</v>
       </c>
-      <c r="C63" t="s">
+      <c r="D63" t="s">
         <v>194</v>
       </c>
-      <c r="D63" t="s">
+      <c r="E63" t="s">
         <v>195</v>
       </c>
-      <c r="E63" t="s">
+      <c r="F63" t="s">
         <v>196</v>
-      </c>
-      <c r="F63" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
@@ -2227,19 +2227,19 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
+        <v>197</v>
+      </c>
+      <c r="C64" t="s">
         <v>198</v>
       </c>
-      <c r="C64" t="s">
+      <c r="D64" t="s">
         <v>199</v>
       </c>
-      <c r="D64" t="s">
+      <c r="E64" t="s">
         <v>200</v>
       </c>
-      <c r="E64" t="s">
+      <c r="F64" t="s">
         <v>201</v>
-      </c>
-      <c r="F64" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
@@ -2247,19 +2247,19 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
+        <v>202</v>
+      </c>
+      <c r="C65" t="s">
         <v>203</v>
       </c>
-      <c r="C65" t="s">
-        <v>204</v>
-      </c>
       <c r="D65" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E65" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F65" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
@@ -2282,19 +2282,19 @@
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C69" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D69" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E69" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F69" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
@@ -2302,19 +2302,19 @@
         <v>68</v>
       </c>
       <c r="B70" t="s">
+        <v>205</v>
+      </c>
+      <c r="C70" t="s">
         <v>206</v>
       </c>
-      <c r="C70" t="s">
+      <c r="D70" t="s">
         <v>207</v>
       </c>
-      <c r="D70" t="s">
+      <c r="E70" t="s">
         <v>208</v>
       </c>
-      <c r="E70" t="s">
+      <c r="F70" t="s">
         <v>209</v>
-      </c>
-      <c r="F70" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
@@ -2322,19 +2322,19 @@
         <v>69</v>
       </c>
       <c r="B71" t="s">
+        <v>210</v>
+      </c>
+      <c r="C71" t="s">
         <v>211</v>
       </c>
-      <c r="C71" t="s">
+      <c r="D71" t="s">
         <v>212</v>
       </c>
-      <c r="D71" t="s">
+      <c r="E71" t="s">
         <v>213</v>
       </c>
-      <c r="E71" t="s">
+      <c r="F71" t="s">
         <v>214</v>
-      </c>
-      <c r="F71" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
@@ -2342,19 +2342,19 @@
         <v>70</v>
       </c>
       <c r="B72" t="s">
+        <v>215</v>
+      </c>
+      <c r="C72" t="s">
         <v>216</v>
       </c>
-      <c r="C72" t="s">
+      <c r="D72" t="s">
         <v>217</v>
       </c>
-      <c r="D72" t="s">
+      <c r="E72" t="s">
         <v>218</v>
       </c>
-      <c r="E72" t="s">
+      <c r="F72" t="s">
         <v>219</v>
-      </c>
-      <c r="F72" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
@@ -2362,19 +2362,19 @@
         <v>71</v>
       </c>
       <c r="B73" t="s">
+        <v>220</v>
+      </c>
+      <c r="C73" t="s">
         <v>221</v>
       </c>
-      <c r="C73" t="s">
+      <c r="D73" t="s">
         <v>222</v>
       </c>
-      <c r="D73" t="s">
+      <c r="E73" t="s">
         <v>223</v>
       </c>
-      <c r="E73" t="s">
+      <c r="F73" t="s">
         <v>224</v>
-      </c>
-      <c r="F73" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
@@ -2382,19 +2382,19 @@
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C74" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D74" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E74" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F74" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
@@ -2402,19 +2402,19 @@
         <v>73</v>
       </c>
       <c r="B75" t="s">
+        <v>226</v>
+      </c>
+      <c r="C75" t="s">
         <v>227</v>
       </c>
-      <c r="C75" t="s">
+      <c r="D75" t="s">
         <v>228</v>
       </c>
-      <c r="D75" t="s">
+      <c r="E75" t="s">
         <v>229</v>
       </c>
-      <c r="E75" t="s">
+      <c r="F75" t="s">
         <v>230</v>
-      </c>
-      <c r="F75" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
@@ -2422,19 +2422,19 @@
         <v>74</v>
       </c>
       <c r="B76" t="s">
+        <v>231</v>
+      </c>
+      <c r="C76" t="s">
         <v>232</v>
       </c>
-      <c r="C76" t="s">
+      <c r="D76" t="s">
         <v>233</v>
       </c>
-      <c r="D76" t="s">
+      <c r="E76" t="s">
         <v>234</v>
       </c>
-      <c r="E76" t="s">
+      <c r="F76" t="s">
         <v>235</v>
-      </c>
-      <c r="F76" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
@@ -2442,19 +2442,19 @@
         <v>75</v>
       </c>
       <c r="B77" t="s">
+        <v>236</v>
+      </c>
+      <c r="C77" t="s">
         <v>237</v>
       </c>
-      <c r="C77" t="s">
+      <c r="D77" t="s">
         <v>238</v>
       </c>
-      <c r="D77" t="s">
+      <c r="E77" t="s">
         <v>239</v>
       </c>
-      <c r="E77" t="s">
-        <v>240</v>
-      </c>
       <c r="F77" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
@@ -2462,19 +2462,19 @@
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C78" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D78" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E78" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F78" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
